--- a/django_project/media_files/workrecords/2024年_SaaS受理工时统计表.xlsx
+++ b/django_project/media_files/workrecords/2024年_SaaS受理工时统计表.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="646">
   <si>
     <t>序号</t>
   </si>
@@ -306,6 +306,17 @@
   </si>
   <si>
     <t>单位开票汇总查询</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业-单位断电</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -3245,7 +3256,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3647,6 +3658,12 @@
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4305,7 +4322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4753,6 +4770,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6247,7 +6267,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12"/>
@@ -7064,7 +7084,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="175" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7090,7 +7110,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7102,7 +7122,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="139" t="s">
         <v>12</v>
@@ -7121,7 +7141,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="138" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="139" t="s">
         <v>12</v>
@@ -7144,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="139" t="s">
         <v>58</v>
@@ -7163,7 +7183,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="138" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" s="139" t="s">
         <v>24</v>
@@ -7182,10 +7202,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="138" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D36" s="139" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7205,7 +7225,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="138" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" s="139" t="s">
         <v>60</v>
@@ -7228,10 +7248,10 @@
         <v>10</v>
       </c>
       <c r="C38" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="139" t="s">
         <v>97</v>
-      </c>
-      <c r="D38" s="139" t="s">
-        <v>96</v>
       </c>
       <c r="E38" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7251,7 +7271,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" s="139" t="s">
         <v>12</v>
@@ -7270,10 +7290,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="138" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" s="139" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7289,7 +7309,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="138" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41" s="139" t="s">
         <v>58</v>
@@ -7308,7 +7328,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="138" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" s="139" t="s">
         <v>12</v>
@@ -8403,31 +8423,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="73" t="s">
         <v>7</v>
@@ -8442,31 +8462,31 @@
         <v>4</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P1" s="91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R1" s="76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S1" s="116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T1" s="116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U1" s="116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V1" s="117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W1" s="118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:23">
@@ -8475,10 +8495,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="79">
         <v>45293</v>
@@ -8487,16 +8507,16 @@
         <v>45293</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H2" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J2" s="93" t="s">
         <v>25</v>
@@ -8508,31 +8528,31 @@
         <v>56</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N2" s="143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O2" s="78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P2" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R2" s="78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S2" s="103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T2" s="167" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U2" s="123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V2" s="122">
         <v>0.5</v>
@@ -8548,10 +8568,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="79">
         <v>45293</v>
@@ -8560,16 +8580,16 @@
         <v>45293</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H3" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J3" s="93" t="s">
         <v>25</v>
@@ -8581,31 +8601,31 @@
         <v>56</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N3" s="143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O3" s="78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P3" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3" s="78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R3" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S3" s="103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T3" s="121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U3" s="121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V3" s="122">
         <v>0.5</v>
@@ -8621,10 +8641,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" s="79">
         <v>45293</v>
@@ -8633,16 +8653,16 @@
         <v>45293</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J4" s="93" t="s">
         <v>20</v>
@@ -8657,28 +8677,28 @@
         <v>89</v>
       </c>
       <c r="N4" s="143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P4" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R4" s="78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S4" s="103" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T4" s="119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U4" s="121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V4" s="122">
         <v>0.5</v>
@@ -8694,10 +8714,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="79">
         <v>45293</v>
@@ -8706,16 +8726,16 @@
         <v>45293</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J5" s="93" t="s">
         <v>20</v>
@@ -8730,28 +8750,28 @@
         <v>57</v>
       </c>
       <c r="N5" s="143" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O5" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P5" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R5" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S5" s="103" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T5" s="119" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U5" s="121" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V5" s="122">
         <v>1</v>
@@ -8767,10 +8787,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="79">
         <v>45293</v>
@@ -8779,16 +8799,16 @@
         <v>45293</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I6" s="103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J6" s="98" t="s">
         <v>20</v>
@@ -8803,28 +8823,28 @@
         <v>51</v>
       </c>
       <c r="N6" s="143" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P6" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R6" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S6" s="103" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T6" s="121" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U6" s="121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V6" s="122">
         <v>0.5</v>
@@ -8840,10 +8860,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="79">
         <v>45293</v>
@@ -8852,16 +8872,16 @@
         <v>45293</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J7" s="98" t="s">
         <v>25</v>
@@ -8873,31 +8893,31 @@
         <v>48</v>
       </c>
       <c r="M7" s="92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N7" s="143" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P7" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R7" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S7" s="103" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T7" s="121" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U7" s="121" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V7" s="122">
         <v>0.4</v>
@@ -8913,10 +8933,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" s="79">
         <v>45293</v>
@@ -8925,16 +8945,16 @@
         <v>45293</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I8" s="78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J8" s="93" t="s">
         <v>25</v>
@@ -8949,28 +8969,28 @@
         <v>59</v>
       </c>
       <c r="N8" s="143" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P8" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R8" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S8" s="103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T8" s="121" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U8" s="121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V8" s="122">
         <v>0.5</v>
@@ -8986,10 +9006,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="79">
         <v>45293</v>
@@ -8998,16 +9018,16 @@
         <v>45293</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I9" s="78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J9" s="93" t="s">
         <v>29</v>
@@ -9022,28 +9042,28 @@
         <v>51</v>
       </c>
       <c r="N9" s="143" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P9" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R9" s="78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S9" s="103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T9" s="121" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U9" s="121" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V9" s="122">
         <v>0.8</v>
@@ -9059,10 +9079,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="79">
         <v>45293</v>
@@ -9071,16 +9091,16 @@
         <v>45293</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I10" s="78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J10" s="93" t="s">
         <v>25</v>
@@ -9092,31 +9112,31 @@
         <v>38</v>
       </c>
       <c r="M10" s="92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N10" s="143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R10" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S10" s="103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T10" s="121" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U10" s="121" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V10" s="122">
         <v>0.9</v>
@@ -9132,10 +9152,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" s="79">
         <v>45293</v>
@@ -9144,16 +9164,16 @@
         <v>45293</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H11" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I11" s="78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J11" s="93" t="s">
         <v>25</v>
@@ -9165,31 +9185,31 @@
         <v>53</v>
       </c>
       <c r="M11" s="92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N11" s="143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O11" s="78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P11" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R11" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S11" s="103" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T11" s="121" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U11" s="121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V11" s="122">
         <v>0.3</v>
@@ -9205,10 +9225,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="79">
         <v>45293</v>
@@ -9217,16 +9237,16 @@
         <v>45293</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H12" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J12" s="93" t="s">
         <v>25</v>
@@ -9241,28 +9261,28 @@
         <v>51</v>
       </c>
       <c r="N12" s="143" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O12" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R12" s="103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S12" s="103" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T12" s="121" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U12" s="121" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="V12" s="122">
         <v>1.3</v>
@@ -9278,10 +9298,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="79">
         <v>45293</v>
@@ -9290,16 +9310,16 @@
         <v>45293</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J13" s="93" t="s">
         <v>14</v>
@@ -9314,28 +9334,28 @@
         <v>23</v>
       </c>
       <c r="N13" s="143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O13" s="78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P13" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R13" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S13" s="103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T13" s="121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U13" s="121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V13" s="122">
         <v>0.8</v>
@@ -9351,10 +9371,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="79">
         <v>45293</v>
@@ -9363,16 +9383,16 @@
         <v>45293</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I14" s="78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J14" s="93" t="s">
         <v>25</v>
@@ -9384,31 +9404,31 @@
         <v>38</v>
       </c>
       <c r="M14" s="92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N14" s="143" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O14" s="78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P14" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R14" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S14" s="103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T14" s="121" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U14" s="121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V14" s="122">
         <v>0.5</v>
@@ -9424,10 +9444,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="79">
         <v>45293</v>
@@ -9436,16 +9456,16 @@
         <v>45293</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H15" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I15" s="78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J15" s="93" t="s">
         <v>25</v>
@@ -9460,25 +9480,25 @@
         <v>51</v>
       </c>
       <c r="N15" s="143" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O15" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P15" s="93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q15" s="78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R15" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S15" s="103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T15" s="123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U15" s="123" t="s">
         <v>12</v>
@@ -9497,10 +9517,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="79">
         <v>45293</v>
@@ -9509,16 +9529,16 @@
         <v>45293</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J16" s="93" t="s">
         <v>25</v>
@@ -9530,31 +9550,31 @@
         <v>38</v>
       </c>
       <c r="M16" s="92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N16" s="143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P16" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R16" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S16" s="103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T16" s="121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U16" s="121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V16" s="122">
         <v>0.5</v>
@@ -9570,10 +9590,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" s="79">
         <v>45293</v>
@@ -9582,16 +9602,16 @@
         <v>45293</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J17" s="93" t="s">
         <v>20</v>
@@ -9606,28 +9626,28 @@
         <v>54</v>
       </c>
       <c r="N17" s="143" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P17" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R17" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S17" s="103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T17" s="121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U17" s="121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V17" s="122">
         <v>0.5</v>
@@ -9643,10 +9663,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" s="79">
         <v>45294</v>
@@ -9655,16 +9675,16 @@
         <v>45294</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J18" s="93" t="s">
         <v>14</v>
@@ -9679,28 +9699,28 @@
         <v>23</v>
       </c>
       <c r="N18" s="143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O18" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P18" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R18" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S18" s="103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T18" s="121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U18" s="121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V18" s="122">
         <v>1.2</v>
@@ -9716,10 +9736,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" s="79">
         <v>45294</v>
@@ -9728,16 +9748,16 @@
         <v>45294</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H19" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I19" s="78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J19" s="93" t="s">
         <v>25</v>
@@ -9749,31 +9769,31 @@
         <v>53</v>
       </c>
       <c r="M19" s="92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O19" s="78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P19" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R19" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S19" s="103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T19" s="121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U19" s="121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V19" s="122">
         <v>0.3</v>
@@ -9789,10 +9809,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" s="79">
         <v>45294</v>
@@ -9801,16 +9821,16 @@
         <v>45294</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H20" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I20" s="103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J20" s="93" t="s">
         <v>20</v>
@@ -9822,31 +9842,31 @@
         <v>26</v>
       </c>
       <c r="M20" s="92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N20" s="143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O20" s="78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P20" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R20" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S20" s="103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T20" s="121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U20" s="121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V20" s="122">
         <v>0.3</v>
@@ -9862,10 +9882,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" s="79">
         <v>45294</v>
@@ -9874,16 +9894,16 @@
         <v>45294</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I21" s="78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J21" s="93" t="s">
         <v>14</v>
@@ -9895,31 +9915,31 @@
         <v>44</v>
       </c>
       <c r="M21" s="92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O21" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P21" s="93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R21" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S21" s="103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T21" s="121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U21" s="121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V21" s="122">
         <v>0.3</v>
@@ -9935,10 +9955,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" s="79">
         <v>45294</v>
@@ -9947,16 +9967,16 @@
         <v>45294</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I22" s="78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J22" s="93" t="s">
         <v>25</v>
@@ -9971,28 +9991,28 @@
         <v>35</v>
       </c>
       <c r="N22" s="143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O22" s="78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R22" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S22" s="103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T22" s="121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U22" s="121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V22" s="122">
         <v>1.5</v>
@@ -10008,10 +10028,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" s="79">
         <v>45294</v>
@@ -10020,16 +10040,16 @@
         <v>45294</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H23" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I23" s="103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J23" s="92" t="s">
         <v>25</v>
@@ -10041,31 +10061,31 @@
         <v>56</v>
       </c>
       <c r="M23" s="92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N23" s="143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O23" s="78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P23" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R23" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S23" s="103" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T23" s="121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U23" s="121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V23" s="122">
         <v>0.3</v>
@@ -10081,10 +10101,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" s="79">
         <v>45294</v>
@@ -10093,16 +10113,16 @@
         <v>45294</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I24" s="78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J24" s="92" t="s">
         <v>25</v>
@@ -10114,31 +10134,31 @@
         <v>40</v>
       </c>
       <c r="M24" s="92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N24" s="143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O24" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P24" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R24" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S24" s="103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T24" s="121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U24" s="121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="V24" s="122">
         <v>0.2</v>
@@ -10154,10 +10174,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="79">
         <v>45294</v>
@@ -10166,16 +10186,16 @@
         <v>45294</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G25" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H25" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I25" s="78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J25" s="93" t="s">
         <v>14</v>
@@ -10190,28 +10210,28 @@
         <v>88</v>
       </c>
       <c r="N25" s="143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O25" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R25" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S25" s="103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T25" s="121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U25" s="121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V25" s="122">
         <v>0.5</v>
@@ -10227,10 +10247,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="79">
         <v>45294</v>
@@ -10239,16 +10259,16 @@
         <v>45294</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I26" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J26" s="93" t="s">
         <v>25</v>
@@ -10260,31 +10280,31 @@
         <v>53</v>
       </c>
       <c r="M26" s="92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N26" s="143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O26" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R26" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S26" s="103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T26" s="121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U26" s="121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V26" s="122">
         <v>0.2</v>
@@ -10300,10 +10320,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" s="79">
         <v>45294</v>
@@ -10312,16 +10332,16 @@
         <v>45294</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H27" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I27" s="78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J27" s="93" t="s">
         <v>25</v>
@@ -10333,31 +10353,31 @@
         <v>67</v>
       </c>
       <c r="M27" s="92" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" s="143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" s="78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R27" s="78" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S27" s="103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T27" s="125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U27" s="121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V27" s="122">
         <v>0.3</v>
@@ -10373,10 +10393,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" s="79">
         <v>45294</v>
@@ -10385,16 +10405,16 @@
         <v>45294</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H28" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I28" s="78" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J28" s="93" t="s">
         <v>25</v>
@@ -10409,28 +10429,28 @@
         <v>59</v>
       </c>
       <c r="N28" s="143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O28" s="78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P28" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R28" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S28" s="103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T28" s="122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U28" s="121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V28" s="122">
         <v>0.5</v>
@@ -10446,10 +10466,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" s="79">
         <v>45294</v>
@@ -10458,16 +10478,16 @@
         <v>45294</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H29" s="143" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I29" s="78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J29" s="93" t="s">
         <v>20</v>
@@ -10482,28 +10502,28 @@
         <v>51</v>
       </c>
       <c r="N29" s="143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O29" s="78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P29" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R29" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S29" s="103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T29" s="121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U29" s="121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V29" s="122">
         <v>0.6</v>
@@ -10519,10 +10539,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" s="79">
         <v>45294</v>
@@ -10531,16 +10551,16 @@
         <v>45294</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I30" s="78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J30" s="93" t="s">
         <v>14</v>
@@ -10555,28 +10575,28 @@
         <v>51</v>
       </c>
       <c r="N30" s="143" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O30" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P30" s="93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R30" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S30" s="103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T30" s="121" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U30" s="121" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V30" s="122">
         <v>0.5</v>
@@ -10592,10 +10612,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" s="79">
         <v>45295</v>
@@ -10604,16 +10624,16 @@
         <v>45295</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G31" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I31" s="78" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J31" s="93" t="s">
         <v>20</v>
@@ -10628,28 +10648,28 @@
         <v>51</v>
       </c>
       <c r="N31" s="143" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O31" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P31" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R31" s="78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S31" s="103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T31" s="121" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U31" s="121" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V31" s="122">
         <v>0.5</v>
@@ -10665,10 +10685,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" s="79">
         <v>45295</v>
@@ -10677,16 +10697,16 @@
         <v>45295</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I32" s="78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J32" s="93" t="s">
         <v>25</v>
@@ -10698,31 +10718,31 @@
         <v>38</v>
       </c>
       <c r="M32" s="92" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N32" s="143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O32" s="78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P32" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q32" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R32" s="78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S32" s="103" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T32" s="119" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U32" s="119" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="V32" s="119">
         <v>2</v>
@@ -10738,10 +10758,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" s="81">
         <v>45295</v>
@@ -10750,16 +10770,16 @@
         <v>45295</v>
       </c>
       <c r="F33" s="80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H33" s="147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J33" s="96" t="s">
         <v>25</v>
@@ -10771,31 +10791,31 @@
         <v>53</v>
       </c>
       <c r="M33" s="97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N33" s="147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P33" s="96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q33" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R33" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S33" s="103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T33" s="121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U33" s="121" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V33" s="122">
         <v>0.2</v>
@@ -10811,10 +10831,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34" s="79">
         <v>45295</v>
@@ -10823,16 +10843,16 @@
         <v>45295</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I34" s="78" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J34" s="96" t="s">
         <v>25</v>
@@ -10844,31 +10864,31 @@
         <v>48</v>
       </c>
       <c r="M34" s="92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N34" s="143" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O34" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P34" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R34" s="168" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S34" s="103" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T34" s="126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U34" s="119" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V34" s="119">
         <v>0.5</v>
@@ -10884,10 +10904,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D35" s="79">
         <v>45295</v>
@@ -10896,16 +10916,16 @@
         <v>45295</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H35" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I35" s="78" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J35" s="93" t="s">
         <v>14</v>
@@ -10920,28 +10940,28 @@
         <v>17</v>
       </c>
       <c r="N35" s="143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O35" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P35" s="93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R35" s="168" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S35" s="103" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T35" s="126" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U35" s="119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V35" s="119">
         <v>0.5</v>
@@ -10957,10 +10977,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" s="79">
         <v>45295</v>
@@ -10969,16 +10989,16 @@
         <v>45295</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H36" s="148" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I36" s="99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J36" s="110" t="s">
         <v>25</v>
@@ -10990,31 +11010,31 @@
         <v>56</v>
       </c>
       <c r="M36" s="110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N36" s="148" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O36" s="84" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P36" s="100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q36" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S36" s="103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T36" s="119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U36" s="119" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V36" s="119">
         <v>0.3</v>
@@ -11030,10 +11050,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="79">
         <v>45294</v>
@@ -11042,16 +11062,16 @@
         <v>45294</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H37" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J37" s="93" t="s">
         <v>25</v>
@@ -11063,31 +11083,31 @@
         <v>53</v>
       </c>
       <c r="M37" s="92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N37" s="143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O37" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P37" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q37" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R37" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S37" s="103" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T37" s="121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U37" s="121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V37" s="119">
         <v>0.3</v>
@@ -11103,10 +11123,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="81">
         <v>45294</v>
@@ -11115,16 +11135,16 @@
         <v>45294</v>
       </c>
       <c r="F38" s="80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H38" s="147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J38" s="97" t="s">
         <v>14</v>
@@ -11136,31 +11156,31 @@
         <v>22</v>
       </c>
       <c r="M38" s="97" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N38" s="147" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O38" s="80" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P38" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q38" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R38" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S38" s="101" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T38" s="119" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U38" s="119" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V38" s="119">
         <v>1.2</v>
@@ -11176,10 +11196,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="79">
         <v>45296</v>
@@ -11188,16 +11208,16 @@
         <v>45296</v>
       </c>
       <c r="F39" s="78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I39" s="78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J39" s="92" t="s">
         <v>14</v>
@@ -11212,28 +11232,28 @@
         <v>59</v>
       </c>
       <c r="N39" s="143" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O39" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P39" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q39" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R39" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S39" s="103" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T39" s="121" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U39" s="121" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V39" s="122">
         <v>2.5</v>
@@ -11249,10 +11269,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="81">
         <v>45296</v>
@@ -11261,16 +11281,16 @@
         <v>45296</v>
       </c>
       <c r="F40" s="80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H40" s="147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I40" s="111" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J40" s="112" t="s">
         <v>14</v>
@@ -11285,28 +11305,28 @@
         <v>51</v>
       </c>
       <c r="N40" s="159" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O40" s="85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P40" s="102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q40" s="85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R40" s="111" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S40" s="111" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="T40" s="119" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U40" s="119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V40" s="119">
         <v>2.5</v>
@@ -11322,10 +11342,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="79">
         <v>45296</v>
@@ -11334,16 +11354,16 @@
         <v>45296</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G41" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" s="143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J41" s="93" t="s">
         <v>29</v>
@@ -11358,28 +11378,28 @@
         <v>35</v>
       </c>
       <c r="N41" s="143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O41" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P41" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R41" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S41" s="103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T41" s="126" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U41" s="119" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V41" s="119">
         <v>0.5</v>
@@ -11395,10 +11415,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="150" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" s="150" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="151">
         <v>45296</v>
@@ -11407,16 +11427,16 @@
         <v>45296</v>
       </c>
       <c r="F42" s="150" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G42" s="150" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H42" s="152" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I42" s="150" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J42" s="160" t="s">
         <v>20</v>
@@ -11428,31 +11448,31 @@
         <v>26</v>
       </c>
       <c r="M42" s="162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N42" s="152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O42" s="150" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P42" s="160" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q42" s="150" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R42" s="150" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S42" s="169" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T42" s="170" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U42" s="171" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V42" s="171">
         <v>3.5</v>
@@ -11468,10 +11488,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" s="81">
         <v>45295</v>
@@ -11480,16 +11500,16 @@
         <v>45295</v>
       </c>
       <c r="F43" s="80" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G43" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H43" s="147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I43" s="99" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J43" s="110" t="s">
         <v>25</v>
@@ -11501,31 +11521,31 @@
         <v>53</v>
       </c>
       <c r="M43" s="97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N43" s="147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O43" s="84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P43" s="100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q43" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R43" s="84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S43" s="99" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T43" s="121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U43" s="121" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V43" s="119">
         <v>0.2</v>
@@ -11541,10 +11561,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="81">
         <v>45295</v>
@@ -11553,16 +11573,16 @@
         <v>45295</v>
       </c>
       <c r="F44" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G44" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H44" s="147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I44" s="99" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J44" s="110" t="s">
         <v>25</v>
@@ -11574,31 +11594,31 @@
         <v>53</v>
       </c>
       <c r="M44" s="97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N44" s="147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P44" s="100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q44" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R44" s="84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S44" s="103" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T44" s="119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U44" s="119" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V44" s="119">
         <v>0.2</v>
@@ -11614,10 +11634,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" s="81">
         <v>45295</v>
@@ -11626,16 +11646,16 @@
         <v>45295</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H45" s="147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I45" s="111" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J45" s="112" t="s">
         <v>25</v>
@@ -11647,31 +11667,31 @@
         <v>53</v>
       </c>
       <c r="M45" s="97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N45" s="147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O45" s="85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P45" s="102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R45" s="85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S45" s="103" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T45" s="119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U45" s="119" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V45" s="119">
         <v>0.2</v>
@@ -11687,10 +11707,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="79">
         <v>45296</v>
@@ -11699,16 +11719,16 @@
         <v>45296</v>
       </c>
       <c r="F46" s="78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G46" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H46" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I46" s="78" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J46" s="92" t="s">
         <v>25</v>
@@ -11723,28 +11743,28 @@
         <v>41</v>
       </c>
       <c r="N46" s="143" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O46" s="78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P46" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q46" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R46" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S46" s="163" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="T46" s="119" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U46" s="119" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V46" s="119">
         <v>0.3</v>
@@ -12564,31 +12584,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="73" t="s">
         <v>7</v>
@@ -12597,37 +12617,37 @@
         <v>8</v>
       </c>
       <c r="M1" s="76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N1" s="76" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P1" s="91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R1" s="76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S1" s="116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T1" s="116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U1" s="116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V1" s="117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W1" s="118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:23">
@@ -12650,10 +12670,10 @@
         <v>22</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N2" s="143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O2" s="78"/>
       <c r="P2" s="93"/>
@@ -14427,7 +14447,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14730,7 +14750,7 @@
         <v>53</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14757,7 +14777,7 @@
         <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14779,7 +14799,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14804,7 +14824,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14829,7 +14849,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14854,7 +14874,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14879,7 +14899,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -14904,7 +14924,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -14929,7 +14949,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -14954,7 +14974,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -14979,7 +14999,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -15004,7 +15024,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -15029,7 +15049,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -15054,7 +15074,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -15079,7 +15099,7 @@
       <c r="H27" s="141"/>
       <c r="I27" s="141"/>
       <c r="J27" s="141" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -15104,7 +15124,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15116,7 +15136,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="138" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="139" t="s">
         <v>12</v>
@@ -16184,31 +16204,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="73" t="s">
         <v>7</v>
@@ -16217,34 +16237,34 @@
         <v>8</v>
       </c>
       <c r="M1" s="76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N1" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O1" s="91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P1" s="76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R1" s="116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S1" s="116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T1" s="116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U1" s="117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V1" s="118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:22">
@@ -16253,10 +16273,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="79">
         <v>45285</v>
@@ -16265,16 +16285,16 @@
         <v>45285</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J2" s="92" t="s">
         <v>20</v>
@@ -16286,28 +16306,28 @@
         <v>40</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N2" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O2" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P2" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R2" s="103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S2" s="119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T2" s="119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U2" s="119">
         <v>5</v>
@@ -16323,10 +16343,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="79">
         <v>45285</v>
@@ -16335,16 +16355,16 @@
         <v>45285</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J3" s="92" t="s">
         <v>25</v>
@@ -16356,28 +16376,28 @@
         <v>16</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N3" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O3" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P3" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="78" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R3" s="103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="S3" s="119" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="T3" s="119" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="U3" s="119">
         <v>2</v>
@@ -16393,10 +16413,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" s="79">
         <v>45285</v>
@@ -16405,16 +16425,16 @@
         <v>45285</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J4" s="92" t="s">
         <v>20</v>
@@ -16426,28 +16446,28 @@
         <v>22</v>
       </c>
       <c r="M4" s="94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O4" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R4" s="103" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S4" s="121" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T4" s="121" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U4" s="122">
         <v>1.5</v>
@@ -16463,10 +16483,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="79">
         <v>45285</v>
@@ -16475,16 +16495,16 @@
         <v>45285</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J5" s="92" t="s">
         <v>20</v>
@@ -16496,28 +16516,28 @@
         <v>22</v>
       </c>
       <c r="M5" s="94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O5" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P5" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R5" s="103" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S5" s="123" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T5" s="123" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U5" s="122">
         <v>1</v>
@@ -16533,10 +16553,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="81">
         <v>45285</v>
@@ -16545,16 +16565,16 @@
         <v>45285</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H6" s="80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J6" s="95" t="s">
         <v>20</v>
@@ -16566,28 +16586,28 @@
         <v>22</v>
       </c>
       <c r="M6" s="97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N6" s="80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O6" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P6" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R6" s="101" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S6" s="119" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T6" s="119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U6" s="119">
         <v>0.5</v>
@@ -16603,10 +16623,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="79">
         <v>45285</v>
@@ -16615,16 +16635,16 @@
         <v>45285</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J7" s="98" t="s">
         <v>25</v>
@@ -16636,28 +16656,28 @@
         <v>48</v>
       </c>
       <c r="M7" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O7" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P7" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R7" s="103" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S7" s="124" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="T7" s="71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="U7" s="122">
         <v>0.6</v>
@@ -16673,10 +16693,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" s="79">
         <v>45285</v>
@@ -16685,16 +16705,16 @@
         <v>45285</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I8" s="78" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J8" s="98" t="s">
         <v>25</v>
@@ -16706,28 +16726,28 @@
         <v>48</v>
       </c>
       <c r="M8" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O8" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P8" s="78" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R8" s="103" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S8" s="124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="T8" s="121" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U8" s="122">
         <v>1.5</v>
@@ -16743,10 +16763,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="81">
         <v>45285</v>
@@ -16755,16 +16775,16 @@
         <v>45285</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I9" s="99" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J9" s="100" t="s">
         <v>25</v>
@@ -16776,28 +16796,28 @@
         <v>53</v>
       </c>
       <c r="M9" s="100" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N9" s="84" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O9" s="100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P9" s="84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R9" s="99" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S9" s="121" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T9" s="121" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="U9" s="122">
         <v>0.3</v>
@@ -16813,10 +16833,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="81">
         <v>45285</v>
@@ -16825,16 +16845,16 @@
         <v>45285</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" s="101" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J10" s="96" t="s">
         <v>25</v>
@@ -16846,28 +16866,28 @@
         <v>53</v>
       </c>
       <c r="M10" s="102" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N10" s="80" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O10" s="96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R10" s="101" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="S10" s="121" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T10" s="121" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="U10" s="122">
         <v>0.3</v>
@@ -16883,10 +16903,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" s="79">
         <v>45285</v>
@@ -16895,16 +16915,16 @@
         <v>45285</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H11" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I11" s="103" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J11" s="93" t="s">
         <v>20</v>
@@ -16916,28 +16936,28 @@
         <v>40</v>
       </c>
       <c r="M11" s="93" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O11" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P11" s="78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="78" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R11" s="103" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S11" s="124" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T11" s="121" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U11" s="122">
         <v>0.5</v>
@@ -16953,10 +16973,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="81">
         <v>45285</v>
@@ -16965,16 +16985,16 @@
         <v>45285</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I12" s="101" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J12" s="95" t="s">
         <v>25</v>
@@ -16986,28 +17006,28 @@
         <v>16</v>
       </c>
       <c r="M12" s="96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N12" s="80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O12" s="96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="80" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R12" s="101" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="S12" s="124" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T12" s="121" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="U12" s="122">
         <v>5</v>
@@ -17023,10 +17043,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="81">
         <v>45285</v>
@@ -17035,16 +17055,16 @@
         <v>45285</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I13" s="101" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J13" s="96" t="s">
         <v>20</v>
@@ -17056,25 +17076,25 @@
         <v>26</v>
       </c>
       <c r="M13" s="96" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N13" s="80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O13" s="96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R13" s="101" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="S13" s="121" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T13" s="121" t="s">
         <v>12</v>
@@ -17093,10 +17113,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="79">
         <v>45285</v>
@@ -17105,16 +17125,16 @@
         <v>45285</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I14" s="78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J14" s="93" t="s">
         <v>20</v>
@@ -17126,28 +17146,28 @@
         <v>22</v>
       </c>
       <c r="M14" s="93" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O14" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P14" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="R14" s="103" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="S14" s="124" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T14" s="121" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="U14" s="122">
         <v>0.9</v>
@@ -17163,10 +17183,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="81">
         <v>45285</v>
@@ -17175,16 +17195,16 @@
         <v>45285</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H15" s="80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I15" s="80" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J15" s="96" t="s">
         <v>14</v>
@@ -17196,28 +17216,28 @@
         <v>22</v>
       </c>
       <c r="M15" s="96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N15" s="80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O15" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P15" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R15" s="101" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S15" s="124" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T15" s="121" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="U15" s="122">
         <v>1.5</v>
@@ -17233,10 +17253,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="79">
         <v>45285</v>
@@ -17245,16 +17265,16 @@
         <v>45285</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J16" s="93" t="s">
         <v>25</v>
@@ -17266,28 +17286,28 @@
         <v>22</v>
       </c>
       <c r="M16" s="93" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O16" s="96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P16" s="78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="78" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="R16" s="103" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S16" s="124" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T16" s="121" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="U16" s="122">
         <v>0.5</v>
@@ -17303,10 +17323,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" s="79">
         <v>45285</v>
@@ -17315,16 +17335,16 @@
         <v>45285</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J17" s="93" t="s">
         <v>20</v>
@@ -17336,28 +17356,28 @@
         <v>22</v>
       </c>
       <c r="M17" s="93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O17" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P17" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R17" s="103" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S17" s="124" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T17" s="123" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="U17" s="122">
         <v>0.5</v>
@@ -17373,10 +17393,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" s="79">
         <v>45286</v>
@@ -17385,16 +17405,16 @@
         <v>45286</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J18" s="100" t="s">
         <v>20</v>
@@ -17406,28 +17426,28 @@
         <v>22</v>
       </c>
       <c r="M18" s="100" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N18" s="84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O18" s="100" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P18" s="84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R18" s="99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="S18" s="121" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T18" s="121" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U18" s="122">
         <v>0.3</v>
@@ -17443,10 +17463,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" s="79">
         <v>45286</v>
@@ -17455,16 +17475,16 @@
         <v>45286</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I19" s="103" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J19" s="93" t="s">
         <v>20</v>
@@ -17476,28 +17496,28 @@
         <v>22</v>
       </c>
       <c r="M19" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O19" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P19" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R19" s="103" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S19" s="121" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T19" s="121" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="U19" s="122">
         <v>0.3</v>
@@ -17513,10 +17533,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" s="79">
         <v>45286</v>
@@ -17525,16 +17545,16 @@
         <v>45286</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I20" s="103" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J20" s="93" t="s">
         <v>14</v>
@@ -17546,28 +17566,28 @@
         <v>26</v>
       </c>
       <c r="M20" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O20" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R20" s="103" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="S20" s="121" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T20" s="121" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="U20" s="122">
         <v>0.3</v>
@@ -17583,10 +17603,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" s="79">
         <v>45286</v>
@@ -17595,16 +17615,16 @@
         <v>45286</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I21" s="103" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J21" s="104" t="s">
         <v>20</v>
@@ -17616,28 +17636,28 @@
         <v>26</v>
       </c>
       <c r="M21" s="104" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O21" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P21" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R21" s="103" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S21" s="121" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T21" s="121" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U21" s="122">
         <v>0.3</v>
@@ -17653,10 +17673,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" s="79">
         <v>45286</v>
@@ -17665,16 +17685,16 @@
         <v>45286</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I22" s="103" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J22" s="93" t="s">
         <v>14</v>
@@ -17686,28 +17706,28 @@
         <v>48</v>
       </c>
       <c r="M22" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O22" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="78" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R22" s="103" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="S22" s="121" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T22" s="121" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="U22" s="122">
         <v>0.5</v>
@@ -17723,10 +17743,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" s="79">
         <v>45287</v>
@@ -17735,16 +17755,16 @@
         <v>45287</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I23" s="103" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J23" s="93" t="s">
         <v>20</v>
@@ -17756,28 +17776,28 @@
         <v>22</v>
       </c>
       <c r="M23" s="93" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O23" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P23" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R23" s="103" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="S23" s="121" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T23" s="121" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="U23" s="122">
         <v>3.5</v>
@@ -17793,10 +17813,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" s="79">
         <v>45287</v>
@@ -17805,16 +17825,16 @@
         <v>45287</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J24" s="92" t="s">
         <v>14</v>
@@ -17826,28 +17846,28 @@
         <v>26</v>
       </c>
       <c r="M24" s="92" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O24" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R24" s="103" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="S24" s="121" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T24" s="121" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="U24" s="122">
         <v>0.5</v>
@@ -17863,10 +17883,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="81">
         <v>45287</v>
@@ -17875,16 +17895,16 @@
         <v>45286</v>
       </c>
       <c r="F25" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J25" s="96" t="s">
         <v>25</v>
@@ -17896,28 +17916,28 @@
         <v>26</v>
       </c>
       <c r="M25" s="96" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N25" s="80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O25" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P25" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R25" s="101" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S25" s="121" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T25" s="121" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="U25" s="122">
         <v>1</v>
@@ -17933,10 +17953,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="81">
         <v>45287</v>
@@ -17945,16 +17965,16 @@
         <v>45287</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J26" s="96" t="s">
         <v>20</v>
@@ -17966,28 +17986,28 @@
         <v>40</v>
       </c>
       <c r="M26" s="93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N26" s="106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O26" s="96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P26" s="80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R26" s="101" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="S26" s="121" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T26" s="121" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U26" s="122">
         <v>0.5</v>
@@ -18003,10 +18023,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" s="79">
         <v>45287</v>
@@ -18015,16 +18035,16 @@
         <v>45287</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H27" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I27" s="78" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J27" s="93" t="s">
         <v>25</v>
@@ -18036,28 +18056,28 @@
         <v>16</v>
       </c>
       <c r="M27" s="93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N27" s="83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O27" s="93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P27" s="78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R27" s="103" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S27" s="125" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T27" s="121" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="U27" s="122">
         <v>1.2</v>
@@ -18073,10 +18093,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" s="86">
         <v>45287</v>
@@ -18085,16 +18105,16 @@
         <v>45287</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I28" s="99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J28" s="93" t="s">
         <v>25</v>
@@ -18106,28 +18126,28 @@
         <v>16</v>
       </c>
       <c r="M28" s="93" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N28" s="108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O28" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="84" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="R28" s="99" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S28" s="121" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T28" s="121" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="U28" s="122">
         <v>0.8</v>
@@ -18143,10 +18163,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" s="86">
         <v>45287</v>
@@ -18155,16 +18175,16 @@
         <v>45287</v>
       </c>
       <c r="F29" s="84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I29" s="109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J29" s="93" t="s">
         <v>25</v>
@@ -18176,28 +18196,28 @@
         <v>53</v>
       </c>
       <c r="M29" s="93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N29" s="83" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O29" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P29" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R29" s="103" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="S29" s="121" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T29" s="121" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="U29" s="122">
         <v>0.3</v>
@@ -18213,10 +18233,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" s="86">
         <v>45287</v>
@@ -18225,16 +18245,16 @@
         <v>45287</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G30" s="84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I30" s="103" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J30" s="93" t="s">
         <v>25</v>
@@ -18246,28 +18266,28 @@
         <v>16</v>
       </c>
       <c r="M30" s="93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N30" s="83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O30" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P30" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R30" s="103" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="S30" s="121" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T30" s="121" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="U30" s="122">
         <v>0.2</v>
@@ -18283,10 +18303,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" s="86">
         <v>45287</v>
@@ -18295,16 +18315,16 @@
         <v>45287</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G31" s="84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I31" s="103" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J31" s="93" t="s">
         <v>25</v>
@@ -18316,28 +18336,28 @@
         <v>53</v>
       </c>
       <c r="M31" s="93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N31" s="78" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O31" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P31" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R31" s="103" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S31" s="121" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T31" s="119" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="U31" s="119">
         <v>0.3</v>
@@ -18353,10 +18373,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C32" s="85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" s="88">
         <v>45287</v>
@@ -18365,16 +18385,16 @@
         <v>45287</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G32" s="85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H32" s="85" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J32" s="96" t="s">
         <v>20</v>
@@ -18386,28 +18406,28 @@
         <v>30</v>
       </c>
       <c r="M32" s="97" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N32" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O32" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P32" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R32" s="101" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="S32" s="121" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T32" s="121" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="U32" s="119">
         <v>0.5</v>
@@ -18423,10 +18443,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" s="79">
         <v>45287</v>
@@ -18435,16 +18455,16 @@
         <v>45287</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H33" s="78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I33" s="78" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J33" s="96" t="s">
         <v>20</v>
@@ -18456,28 +18476,28 @@
         <v>26</v>
       </c>
       <c r="M33" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N33" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O33" s="93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P33" s="78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R33" s="103" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="S33" s="126" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T33" s="119" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="U33" s="119">
         <v>0.5</v>
@@ -18493,10 +18513,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34" s="79">
         <v>45287</v>
@@ -18505,16 +18525,16 @@
         <v>45287</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I34" s="78" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J34" s="96" t="s">
         <v>20</v>
@@ -18526,28 +18546,28 @@
         <v>22</v>
       </c>
       <c r="M34" s="110" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N34" s="78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P34" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q34" s="78" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="R34" s="103" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="S34" s="124" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T34" s="119" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U34" s="119">
         <v>0.5</v>
@@ -18563,10 +18583,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D35" s="81">
         <v>45287</v>
@@ -18575,16 +18595,16 @@
         <v>45287</v>
       </c>
       <c r="F35" s="80" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I35" s="111" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J35" s="112" t="s">
         <v>37</v>
@@ -18596,28 +18616,28 @@
         <v>56</v>
       </c>
       <c r="M35" s="112" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N35" s="85" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O35" s="102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P35" s="85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35" s="85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R35" s="111" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="S35" s="119" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T35" s="119" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="U35" s="119">
         <v>0.6</v>
@@ -18633,10 +18653,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" s="79">
         <v>45288</v>
@@ -18645,16 +18665,16 @@
         <v>45288</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H36" s="78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I36" s="78" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J36" s="93" t="s">
         <v>14</v>
@@ -18666,28 +18686,28 @@
         <v>22</v>
       </c>
       <c r="M36" s="112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N36" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O36" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P36" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q36" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R36" s="103" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S36" s="126" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T36" s="119" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="U36" s="119">
         <v>1</v>
@@ -18703,10 +18723,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="81">
         <v>45288</v>
@@ -18715,16 +18735,16 @@
         <v>45288</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I37" s="80" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J37" s="96" t="s">
         <v>14</v>
@@ -18736,28 +18756,28 @@
         <v>16</v>
       </c>
       <c r="M37" s="112" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N37" s="80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O37" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P37" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q37" s="80" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R37" s="101" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="S37" s="126" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T37" s="71" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="U37" s="119">
         <v>2.5</v>
@@ -18773,10 +18793,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="79">
         <v>45288</v>
@@ -18785,16 +18805,16 @@
         <v>45288</v>
       </c>
       <c r="F38" s="78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G38" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H38" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I38" s="78" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J38" s="93" t="s">
         <v>25</v>
@@ -18806,28 +18826,28 @@
         <v>16</v>
       </c>
       <c r="M38" s="110" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N38" s="78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O38" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P38" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q38" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R38" s="103" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="S38" s="124" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T38" s="121" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="U38" s="122">
         <v>1.5</v>
@@ -18843,10 +18863,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="79">
         <v>45288</v>
@@ -18855,16 +18875,16 @@
         <v>45288</v>
       </c>
       <c r="F39" s="78" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G39" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I39" s="78" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J39" s="93" t="s">
         <v>25</v>
@@ -18876,28 +18896,28 @@
         <v>40</v>
       </c>
       <c r="M39" s="110" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N39" s="78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O39" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P39" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q39" s="78" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="R39" s="103" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="S39" s="124" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="T39" s="121" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="U39" s="122">
         <v>0.5</v>
@@ -18913,10 +18933,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="79">
         <v>45288</v>
@@ -18925,16 +18945,16 @@
         <v>45288</v>
       </c>
       <c r="F40" s="78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G40" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H40" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I40" s="78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J40" s="93" t="s">
         <v>14</v>
@@ -18946,28 +18966,28 @@
         <v>22</v>
       </c>
       <c r="M40" s="112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N40" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O40" s="93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P40" s="78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q40" s="78" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="R40" s="103" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="S40" s="119" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T40" s="119" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="U40" s="119">
         <v>0.6</v>
@@ -18983,10 +19003,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="79">
         <v>45288</v>
@@ -18995,16 +19015,16 @@
         <v>45288</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J41" s="96" t="s">
         <v>25</v>
@@ -19016,28 +19036,28 @@
         <v>22</v>
       </c>
       <c r="M41" s="112" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N41" s="80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O41" s="96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P41" s="80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R41" s="101" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="S41" s="126" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T41" s="119" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="U41" s="119">
         <v>1</v>
@@ -19053,10 +19073,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="79">
         <v>45289</v>
@@ -19065,16 +19085,16 @@
         <v>45289</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G42" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H42" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I42" s="78" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J42" s="93" t="s">
         <v>25</v>
@@ -19086,28 +19106,28 @@
         <v>26</v>
       </c>
       <c r="M42" s="92" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N42" s="78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P42" s="78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q42" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R42" s="103" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="S42" s="121" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T42" s="121" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="U42" s="122">
         <v>0.3</v>
@@ -19123,10 +19143,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" s="81">
         <v>45289</v>
@@ -19135,16 +19155,16 @@
         <v>45289</v>
       </c>
       <c r="F43" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H43" s="80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I43" s="115" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J43" s="96" t="s">
         <v>20</v>
@@ -19156,28 +19176,28 @@
         <v>16</v>
       </c>
       <c r="M43" s="97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N43" s="80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O43" s="96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P43" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q43" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R43" s="101" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S43" s="119" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T43" s="126" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="U43" s="119">
         <v>0.5</v>
@@ -19193,10 +19213,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="79">
         <v>45289</v>
@@ -19205,16 +19225,16 @@
         <v>45289</v>
       </c>
       <c r="F44" s="78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G44" s="78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H44" s="78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I44" s="78" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J44" s="93" t="s">
         <v>20</v>
@@ -19226,28 +19246,28 @@
         <v>22</v>
       </c>
       <c r="M44" s="97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N44" s="78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O44" s="93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P44" s="78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q44" s="78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R44" s="103" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S44" s="126" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T44" s="119" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U44" s="119">
         <v>0.5</v>
@@ -19263,10 +19283,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" s="81">
         <v>45289</v>
@@ -19275,16 +19295,16 @@
         <v>45289</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H45" s="78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J45" s="96" t="s">
         <v>20</v>
@@ -19296,28 +19316,28 @@
         <v>16</v>
       </c>
       <c r="M45" s="97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N45" s="80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O45" s="96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P45" s="80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R45" s="101" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S45" s="126" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T45" s="119" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U45" s="119">
         <v>0.5</v>
@@ -19333,10 +19353,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="81">
         <v>45289</v>
@@ -19345,16 +19365,16 @@
         <v>45289</v>
       </c>
       <c r="F46" s="80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G46" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H46" s="80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I46" s="80" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J46" s="96" t="s">
         <v>20</v>
@@ -19366,25 +19386,25 @@
         <v>16</v>
       </c>
       <c r="M46" s="97" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N46" s="80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O46" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P46" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q46" s="80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R46" s="101" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="S46" s="127" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T46" s="128" t="s">
         <v>12</v>
@@ -19635,7 +19655,7 @@
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:9">
       <c r="A1" s="59" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -19651,28 +19671,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:9">
@@ -19680,7 +19700,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C3" s="64">
         <v>157</v>
@@ -19709,7 +19729,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C4" s="65">
         <v>25</v>
@@ -19738,7 +19758,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C5" s="64">
         <v>115</v>
@@ -19796,7 +19816,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C7" s="64">
         <v>203</v>
@@ -19825,7 +19845,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C8" s="64">
         <v>747</v>
@@ -19854,7 +19874,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C9" s="64">
         <v>18</v>
@@ -19922,7 +19942,7 @@
   <sheetData>
     <row r="1" ht="24" spans="2:22">
       <c r="B1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -19942,16 +19962,16 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="U1" s="36" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" ht="24" spans="2:17">
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>48</v>
@@ -19993,12 +20013,12 @@
         <v>56</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="2:17">
       <c r="B3" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C3" s="7" t="e">
         <f t="shared" ref="C3:C9" si="0">LEFT(D3,FIND("[",D3,1)-1)+LEFT(E3,FIND("[",E3,1)-1)+LEFT(F3,FIND("[",F3,1)-1)+LEFT(G3,FIND("[",G3,1)-1)+LEFT(H3,FIND("[",H3,1)-1)+LEFT(I3,FIND("[",I3,1)-1)+LEFT(J3,FIND("[",J3,1)-1)+LEFT(K3,FIND("[",K3,1)-1)+LEFT(L3,FIND("[",L3,1)-1)+LEFT(M3,FIND("[",M3,1)-1)+LEFT(N3,FIND("[",N3,1)-1)+LEFT(O3,FIND("[",O3,1)-1)+LEFT(P3,FIND("[",P3,1)-1)</f>
@@ -20063,7 +20083,7 @@
     </row>
     <row r="4" ht="23.25" customHeight="1" spans="2:17">
       <c r="B4" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C4" s="7" t="e">
         <f t="shared" si="0"/>
@@ -20128,7 +20148,7 @@
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="2:17">
       <c r="B5" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C5" s="7" t="e">
         <f t="shared" si="0"/>
@@ -20193,7 +20213,7 @@
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="2:17">
       <c r="B6" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C6" s="7" t="e">
         <f t="shared" si="0"/>
@@ -20258,7 +20278,7 @@
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="2:17">
       <c r="B7" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C7" s="7" t="e">
         <f t="shared" si="0"/>
@@ -20323,7 +20343,7 @@
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="2:17">
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="7" t="e">
         <f t="shared" si="0"/>
@@ -20388,7 +20408,7 @@
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="2:17">
       <c r="B9" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="7" t="e">
         <f t="shared" si="0"/>
@@ -20453,7 +20473,7 @@
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="2:17">
       <c r="B10" s="11" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C10" s="7" t="e">
         <f>SUM(C3:C9)</f>
@@ -20801,7 +20821,7 @@
     </row>
     <row r="25" ht="14.25" spans="2:19">
       <c r="B25" s="16" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -20823,23 +20843,23 @@
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="31" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -20854,7 +20874,7 @@
     </row>
     <row r="27" ht="13.5" spans="2:19">
       <c r="B27" s="20" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C27" s="21">
         <v>3</v>
@@ -20883,7 +20903,7 @@
     </row>
     <row r="28" ht="13.5" spans="2:19">
       <c r="B28" s="20" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C28" s="21">
         <v>1</v>
@@ -20912,7 +20932,7 @@
     </row>
     <row r="29" ht="13.5" spans="2:19">
       <c r="B29" s="20" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C29" s="21">
         <v>3</v>
@@ -20941,7 +20961,7 @@
     </row>
     <row r="30" ht="13.5" spans="2:19">
       <c r="B30" s="20" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C30" s="21">
         <v>1</v>
@@ -20970,7 +20990,7 @@
     </row>
     <row r="31" ht="13.5" spans="2:19">
       <c r="B31" s="20" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C31" s="21">
         <v>3</v>
@@ -20999,7 +21019,7 @@
     </row>
     <row r="32" ht="13.5" spans="2:6">
       <c r="B32" s="20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C32" s="22">
         <v>3</v>
@@ -21016,7 +21036,7 @@
     </row>
     <row r="33" ht="13.5" spans="2:6">
       <c r="B33" s="20" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C33" s="22">
         <v>2</v>
@@ -21033,7 +21053,7 @@
     </row>
     <row r="34" ht="13.5" spans="2:19">
       <c r="B34" s="23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C34" s="12">
         <f>SUM(C27:C33)</f>
@@ -21257,7 +21277,7 @@
     </row>
     <row r="45" ht="14.25" spans="2:19">
       <c r="B45" s="24" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -21279,43 +21299,43 @@
     </row>
     <row r="46" ht="16.5" spans="2:19">
       <c r="B46" s="25" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L46" s="34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
@@ -21325,7 +21345,7 @@
     </row>
     <row r="47" ht="17.25" spans="2:19">
       <c r="B47" s="27" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C47" s="28">
         <v>1</v>
@@ -21695,7 +21715,7 @@
     </row>
     <row r="65" ht="14.25" spans="2:19">
       <c r="B65" s="24" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -21717,28 +21737,28 @@
     </row>
     <row r="66" ht="13.5" spans="2:19">
       <c r="B66" s="41" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G66" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I66" s="56" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J66" s="44"/>
       <c r="K66" s="56"/>
@@ -21753,7 +21773,7 @@
     </row>
     <row r="67" ht="15.75" spans="2:19">
       <c r="B67" s="46" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C67" s="47">
         <v>9</v>
@@ -21907,31 +21927,31 @@
     </row>
     <row r="74" spans="2:19">
       <c r="B74" s="25" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E74" s="44" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F74" s="44" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H74" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I74" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J74" s="56" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
@@ -21945,7 +21965,7 @@
     </row>
     <row r="75" ht="12.75" spans="2:19">
       <c r="B75" s="52" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C75" s="53">
         <v>22</v>
@@ -21984,28 +22004,28 @@
     </row>
     <row r="76" ht="24" spans="2:19">
       <c r="B76" s="55" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E76" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>643</v>
+      </c>
+      <c r="G76" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="H76" s="49" t="s">
         <v>641</v>
       </c>
-      <c r="F76" s="49" t="s">
-        <v>642</v>
-      </c>
-      <c r="G76" s="49" t="s">
-        <v>643</v>
-      </c>
-      <c r="H76" s="49" t="s">
-        <v>640</v>
-      </c>
       <c r="I76" s="58" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J76" s="49"/>
       <c r="K76" s="13"/>
